--- a/Planing/Side Planing.xlsx
+++ b/Planing/Side Planing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="12585" windowHeight="1620"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>人工智能导论</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>C语言进阶</t>
+  </si>
+  <si>
+    <t>数据结构与算法</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>RTOS</t>
+  </si>
+  <si>
+    <t>树莓派、Linux</t>
+  </si>
+  <si>
+    <t>操作系统原理</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
   <si>
     <t>日期</t>
   </si>
@@ -189,17 +222,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,28 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -265,6 +270,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -272,62 +306,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,31 +375,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,97 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,48 +556,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,22 +573,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,7 +597,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,28 +626,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +655,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,137 +686,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +827,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,14 +1183,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1213,215 +1315,215 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1429,11 +1531,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"致命,严重,一般,提示"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"BUG-致命,BUG-严重,BUG-一般,BUG-优化,总结-一级优先,总结-二级优先,总结-三级优先"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>"BUG-致命,BUG-严重,BUG-一般,BUG-优化,总结-一级优先,总结-二级优先,总结-三级优先"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"New,Assigned,Open,Fixed,Pending Reset,Close,Reopen"</formula1>

--- a/Planing/Side Planing.xlsx
+++ b/Planing/Side Planing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12585" windowHeight="1620"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
@@ -195,8 +195,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -222,6 +222,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -231,30 +328,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -262,105 +335,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,181 +375,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,11 +569,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,22 +618,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,8 +637,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,28 +658,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,137 +686,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,9 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1186,7 +1183,7 @@
   <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1205,10 +1202,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -1234,17 +1231,16 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1528,6 +1524,9 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"New,Assigned,Open,Fixed,Pending Reset,Close,Reopen"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"致命,严重,一般,提示"</formula1>
     </dataValidation>
@@ -1536,9 +1535,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"New,Assigned,Open,Fixed,Pending Reset,Close,Reopen"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
